--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_SignalIndicator_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_SignalIndicator_JS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -457,6 +457,71 @@
 </t>
   </si>
   <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Signal JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0861
+};
+validate4
+{
+validate_Screenshot=VT200-0861-01
+};
+validate5
+{
+validate_Screenshot=VT200-0861-02
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0851_home_xpath);
+SwitchApp(WEBVIEW);
+link_Click(signal_test_link);
+validate2;
+SelectTestToRun(VT200_0851_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+TakeScreenshot(VT200-0851);
+validate4;
+wait(2);
+TakeScreenshot(VT200-0851);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Signal JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0855
+};
+validate4
+{
+validate_Screenshot=VT200-0855
+};</t>
+  </si>
+  <si>
+    <t>Change Start page</t>
+  </si>
+  <si>
+    <t>wait(3);
+SetStartPage(http://127.0.0.1:8082/app/);</t>
+  </si>
+  <si>
     <t xml:space="preserve">wait(3);
 validate1;
 link_Click(signal_test_link);
@@ -471,7 +536,7 @@
 wifi_Mode(ON);
 wait(2);
 press_Key(Home);
-launch_App_Device(com.rhomobile.compliancetest_js/com.rhomobile.rhodes.RhodesActivity);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 wait(2);
 validate4;
 checkCallbackValues(essid_xpath);
@@ -492,7 +557,7 @@
 wifi_Mode(OFF);
 wifi_Mode(ON);
 press_Key(Home);
-launch_App_Device(com.rhomobile.compliancetest_js/com.rhomobile.rhodes.RhodesActivity);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 validate4;
 wait(15);
 checkstopwlanStatus(results_id);</t>
@@ -508,7 +573,7 @@
 wifi_Mode(OFF);
 wait(2);
 press_Key(Home);
-launch_App_Device(com.rhomobile.compliancetest_js/com.rhomobile.rhodes.RhodesActivity);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 wait(2);
 ClickRunTest(runtest_bottom_xpath);
 wait(2);
@@ -516,84 +581,12 @@
 checkCallbackValues(ipwlandisable_xpath);
 wifi_Mode(ON);
 press_Key(Home);</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signal JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0861
-};
-validate4
-{
-validate_Screenshot=VT200-0861-01
-};
-validate5
-{
-validate_Screenshot=VT200-0861-02
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0851_home_xpath);
-SwitchApp(WEBVIEW);
-link_Click(signal_test_link);
-validate2;
-SelectTestToRun(VT200_0851_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-TakeScreenshot(VT200-0851);
-validate4;
-wait(2);
-TakeScreenshot(VT200-0851);</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signal JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0855
-};
-validate4
-{
-validate_Screenshot=VT200-0855
-};</t>
-  </si>
-  <si>
-    <t>Change Start page</t>
-  </si>
-  <si>
-    <t>wait(3);
-SetStartPage(http://127.0.0.1:8082/app/);</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1005,17 +998,17 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.02265625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" thickBot="1">
@@ -1065,21 +1058,19 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="192" thickBot="1">
@@ -1100,15 +1091,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="304.5" thickBot="1">
@@ -1129,15 +1118,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="180.75" thickBot="1">
@@ -1164,9 +1151,7 @@
         <v>37</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="180.75" thickBot="1">
@@ -1193,9 +1178,7 @@
         <v>38</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="180.75" thickBot="1">
@@ -1219,12 +1202,10 @@
         <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="180.75" thickBot="1">
@@ -1251,9 +1232,7 @@
         <v>39</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="180.75" thickBot="1">
@@ -1280,9 +1259,7 @@
         <v>40</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="169.5" thickBot="1">
@@ -1309,9 +1286,7 @@
         <v>36</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="180.75" thickBot="1">
@@ -1338,9 +1313,7 @@
         <v>34</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="180.75" thickBot="1">
@@ -1367,9 +1340,7 @@
         <v>35</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="225.75" thickBot="1">
@@ -1393,12 +1364,10 @@
         <v>44</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="304.5" thickBot="1">
@@ -1419,15 +1388,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="293.25" thickBot="1">
@@ -1448,15 +1415,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
   </sheetData>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_SignalIndicator_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_SignalIndicator_JS.xlsx
@@ -519,7 +519,35 @@
   </si>
   <si>
     <t>wait(3);
-SetStartPage(http://127.0.0.1:8082/app/);</t>
+validate1;
+link_Click(signal_test_link);
+validate2;
+SelectTestToRun(VT200_0864_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+wifi_Mode(OFF);
+wait(2);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
+wait(2);
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+checkCallbackValues(ipwlandisable_xpath);
+wifi_Mode(ON);
+press_Key(Home);</t>
+  </si>
+  <si>
+    <t>wait(3);
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;);
+ChangeConfigxml(Configuration/WebServer,Enabled,&lt;Enabled VALUE="1"/&gt;);
+ChangeConfigxml(Configuration/WebServer,Port,&lt;Port VALUE="8082"/&gt;);
+ChangeConfigxml(Configuration/WebServer,WebFolder,&lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;);
+ChangeConfigxml(Configuration/WebServer,Public,&lt;Public VALUE="1"/&gt;);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
+PushConfigxml;</t>
   </si>
   <si>
     <t xml:space="preserve">wait(3);
@@ -542,7 +570,7 @@
 checkCallbackValues(essid_xpath);
 checkCallbackValues(ipaddress_xpath);
 checkCallbackValues(signalStrength_xpath);
-signalCallbackcount(results_id);
+signalCallbackcount(results_id,com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 </t>
   </si>
   <si>
@@ -560,27 +588,7 @@
 launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 validate4;
 wait(15);
-checkstopwlanStatus(results_id);</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signal_test_link);
-validate2;
-SelectTestToRun(VT200_0864_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-wifi_Mode(OFF);
-wait(2);
-press_Key(Home);
-launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
-wait(2);
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-checkCallbackValues(ipwlandisable_xpath);
-wifi_Mode(ON);
-press_Key(Home);</t>
+checkstopwlanStatus(results_id,com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);</t>
   </si>
 </sst>
 </file>
@@ -997,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1044,7 +1052,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="43.5" thickBot="1">
+    <row r="2" spans="1:11" ht="332.25" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1064,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="2" t="s">
@@ -1100,7 +1108,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="304.5" thickBot="1">
+    <row r="4" spans="1:11" ht="315.75" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1118,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>42</v>
@@ -1388,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>45</v>
@@ -1415,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>43</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_SignalIndicator_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_SignalIndicator_JS.xlsx
@@ -538,18 +538,6 @@
 press_Key(Home);</t>
   </si>
   <si>
-    <t>wait(3);
-PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;);
-ChangeConfigxml(Configuration/WebServer,Enabled,&lt;Enabled VALUE="1"/&gt;);
-ChangeConfigxml(Configuration/WebServer,Port,&lt;Port VALUE="8082"/&gt;);
-ChangeConfigxml(Configuration/WebServer,WebFolder,&lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;);
-ChangeConfigxml(Configuration/WebServer,Public,&lt;Public VALUE="1"/&gt;);
-ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
-PushConfigxml;</t>
-  </si>
-  <si>
     <t xml:space="preserve">wait(3);
 validate1;
 link_Click(signal_test_link);
@@ -589,6 +577,14 @@
 validate4;
 wait(15);
 checkstopwlanStatus(results_id,com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);</t>
+  </si>
+  <si>
+    <t>wait(3);
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
+PushConfigxml;</t>
   </si>
 </sst>
 </file>
@@ -1005,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1052,7 +1048,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="332.25" thickBot="1">
+    <row r="2" spans="1:11" ht="243" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1072,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="2" t="s">
@@ -1126,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>42</v>
@@ -1396,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>45</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_SignalIndicator_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_SignalIndicator_JS.xlsx
@@ -479,24 +479,6 @@
 };</t>
   </si>
   <si>
-    <t>wait(3);
-validate1;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0851_home_xpath);
-SwitchApp(WEBVIEW);
-link_Click(signal_test_link);
-validate2;
-SelectTestToRun(VT200_0851_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-TakeScreenshot(VT200-0851);
-validate4;
-wait(2);
-TakeScreenshot(VT200-0851);</t>
-  </si>
-  <si>
     <t>validate1
 {
 validate_PageTitle=Compliance JS specs
@@ -585,6 +567,19 @@
 ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
 ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
 PushConfigxml;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signal_test_link);
+validate2;
+SelectTestToRun(VT200_0851_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+TakeScreenshot(VT200-0851);
+validate4;</t>
   </si>
 </sst>
 </file>
@@ -1001,9 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1062,13 +1055,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="2" t="s">
@@ -1077,7 +1070,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="192" thickBot="1">
+    <row r="3" spans="1:11" ht="180.75" thickBot="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1095,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>41</v>
@@ -1122,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>42</v>
@@ -1206,7 +1199,7 @@
         <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1392,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>45</v>
@@ -1419,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>43</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_SignalIndicator_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_SignalIndicator_JS.xlsx
@@ -117,34 +117,6 @@
 validate1;
 link_Click(signal_test_link);
 validate2;
-SelectTestToRun(VT200_0854_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-TakeScreenshot(VT200-0854);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signal_test_link);
-validate2;
-SelectTestToRun(VT200_0855_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-TakeScreenshot(VT200-0855);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signal_test_link);
-validate2;
 SelectTestToRun(VT200_0856_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
@@ -292,24 +264,6 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0854
-};
-validate4
-{
-validate_Screenshot=VT200-0854
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signal JS Test
-};
-validate3
-{
 validate_Text_Exists=VT200-0856
 };
 validate4
@@ -333,24 +287,6 @@
 validate4
 {
 validate_Screenshot=VT200-0857
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signal JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0851
-};
-validate4
-{
-validate_Screenshot=VT200-0851
 };</t>
   </si>
   <si>
@@ -411,23 +347,6 @@
 };</t>
   </si>
   <si>
-    <t>wait(3);
-validate1;
-link_Click(signal_test_link);
-validate2;
-SelectTestToRun(VT200_0861_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-TakeScreenshot(VT200-0861-01);
-wait(2);
-validate4;
-wait(12);
-TakeScreenshot(VT200-0861-02);
-wait(2);
-validate5;</t>
-  </si>
-  <si>
     <t xml:space="preserve">validate1
 {
 validate_PageTitle=Compliance JS specs
@@ -455,46 +374,6 @@
 validate_Result=wins
 };
 </t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signal JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0861
-};
-validate4
-{
-validate_Screenshot=VT200-0861-01
-};
-validate5
-{
-validate_Screenshot=VT200-0861-02
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signal JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0855
-};
-validate4
-{
-validate_Screenshot=VT200-0855
-};</t>
   </si>
   <si>
     <t>Change Start page</t>
@@ -580,6 +459,123 @@
 wait(2);
 TakeScreenshot(VT200-0851);
 validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Signal JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0851
+};
+validate4
+{
+validate_Screenshot=VT200-0851
+validate_Iconposition=signalview_xpath,left,20
+validate_Iconposition=signalview_xpath,top,40
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signal_test_link);
+validate2;
+SelectTestToRun(VT200_0854_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Signal JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0854
+};
+validate4
+{
+validate_Iconposition=signalview_xpath,left,40
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Signal JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0855
+};
+validate4
+{
+validate_Iconposition=signalview_xpath,top,40
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signal_test_link);
+validate2;
+SelectTestToRun(VT200_0855_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Signal JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0861
+};
+validate4
+{
+validate_isIconDisplayed=signalview_xpath,true
+};
+validate5
+{
+validate_isIconDisplayed=signalview_xpath,false
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signal_test_link);
+validate2;
+SelectTestToRun(VT200_0861_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+TakeScreenshot(VT200-0861-01);
+wait(2);
+validate4;
+wait(12);
+validate5;</t>
   </si>
 </sst>
 </file>
@@ -996,7 +992,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1055,13 +1053,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="2" t="s">
@@ -1070,7 +1068,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="180.75" thickBot="1">
+    <row r="3" spans="1:11" ht="203.25" thickBot="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1088,10 +1086,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1115,10 +1113,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1145,7 +1143,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1169,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1196,10 +1194,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1223,10 +1221,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1250,10 +1248,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1277,10 +1275,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1304,10 +1302,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1331,10 +1329,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1358,10 +1356,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1385,10 +1383,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1412,10 +1410,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
